--- a/Fabrication/ISO_Power_PCB/BOM_ISO_Power_PCB_RS_order.xlsx
+++ b/Fabrication/ISO_Power_PCB/BOM_ISO_Power_PCB_RS_order.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="323">
   <si>
     <t>PCBWay Bom Quotation, Product No.:T-Y4W418135A</t>
   </si>
@@ -1069,6 +1069,95 @@
   </si>
   <si>
     <t>https://uk.rs-online.com/web/p/microcontrollers/1773693/</t>
+  </si>
+  <si>
+    <r>
+      <t>164-9927</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.4"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/tactile-switches/1649927/</t>
+  </si>
+  <si>
+    <t>533-3692</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/buck-converters/5333692/</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14.4"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>355-9167</t>
+    </r>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/logic-gates/3559167/</t>
+  </si>
+  <si>
+    <t>775-3760</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/crystal-units/7753760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9, J10, J11, J12, J13, </t>
+  </si>
+  <si>
+    <t>USB_CH_A</t>
+  </si>
+  <si>
+    <t>USB_A</t>
+  </si>
+  <si>
+    <t>Connector_USB:USB_A_Molex_67643_Horizontal</t>
+  </si>
+  <si>
+    <t>USB Type A connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J14, J15, J16, J17, J18, </t>
+  </si>
+  <si>
+    <t>XT30_connector_DC_30A_female</t>
+  </si>
+  <si>
+    <t>Connector_AMASS:AMASS_XT30PW-F_1x02_P2.50mm_Horizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1, </t>
+  </si>
+  <si>
+    <t>XT60_connector_DC_60A_male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1, </t>
+  </si>
+  <si>
+    <t>20A</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>Fuse:Fuseholder_Cylinder-5x20mm_Stelvio-Kontek_PTF78_Horizontal_Open</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,18 +1365,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1352,6 +1429,22 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1702,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1711,7 +1804,7 @@
     <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="5.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.625" style="2" customWidth="1"/>
@@ -1727,24 +1820,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:51" ht="25.7" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -1756,7 +1849,7 @@
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>234</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1786,7 +1879,7 @@
       <c r="M2" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="16" t="s">
         <v>233</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -1841,7 +1934,7 @@
       <c r="C3" s="7">
         <v>9</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="19">
         <f>C3*25</f>
         <v>225</v>
       </c>
@@ -1870,7 +1963,7 @@
       <c r="L3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="17" t="s">
         <v>235</v>
       </c>
       <c r="N3" s="11" t="s">
@@ -1928,7 +2021,7 @@
       <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="19">
         <f t="shared" ref="D4:D44" si="1">C4*25</f>
         <v>50</v>
       </c>
@@ -1957,7 +2050,7 @@
       <c r="L4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="17" t="s">
         <v>238</v>
       </c>
       <c r="N4" s="11" t="s">
@@ -2005,179 +2098,179 @@
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
     </row>
-    <row r="5" spans="1:51" ht="25.5">
-      <c r="A5" s="7">
+    <row r="5" spans="1:51" s="34" customFormat="1" ht="25.5">
+      <c r="A5" s="28">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="28">
         <v>3</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="28">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="29">
         <v>0.154</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="29">
         <f t="shared" si="0"/>
         <v>11.549999999999999</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-    </row>
-    <row r="6" spans="1:51" ht="25.5">
-      <c r="A6" s="7">
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="33"/>
+    </row>
+    <row r="6" spans="1:51" s="34" customFormat="1" ht="25.5">
+      <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="28">
         <v>2</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="28">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="29">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="29">
         <f t="shared" si="0"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33"/>
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="33"/>
+      <c r="AO6" s="33"/>
+      <c r="AP6" s="33"/>
+      <c r="AQ6" s="33"/>
+      <c r="AR6" s="33"/>
+      <c r="AS6" s="33"/>
+      <c r="AT6" s="33"/>
+      <c r="AU6" s="33"/>
+      <c r="AV6" s="33"/>
+      <c r="AW6" s="33"/>
+      <c r="AX6" s="33"/>
+      <c r="AY6" s="33"/>
     </row>
     <row r="7" spans="1:51" ht="25.5">
       <c r="A7" s="7">
@@ -2189,7 +2282,7 @@
       <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="19">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -2218,7 +2311,7 @@
       <c r="L7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="17" t="s">
         <v>243</v>
       </c>
       <c r="N7" s="11" t="s">
@@ -2276,7 +2369,7 @@
       <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -2305,7 +2398,7 @@
       <c r="L8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="17" t="s">
         <v>245</v>
       </c>
       <c r="N8" s="11" t="s">
@@ -2363,7 +2456,7 @@
       <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -2392,7 +2485,7 @@
       <c r="L9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="17" t="s">
         <v>247</v>
       </c>
       <c r="N9" s="11" t="s">
@@ -2450,7 +2543,7 @@
       <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -2479,7 +2572,7 @@
       <c r="L10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="17" t="s">
         <v>249</v>
       </c>
       <c r="N10" s="11" t="s">
@@ -2537,7 +2630,7 @@
       <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -2566,7 +2659,7 @@
       <c r="L11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="17" t="s">
         <v>251</v>
       </c>
       <c r="N11" s="11" t="s">
@@ -2624,7 +2717,7 @@
       <c r="C12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -2653,7 +2746,7 @@
       <c r="L12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="17" t="s">
         <v>253</v>
       </c>
       <c r="N12" s="11" t="s">
@@ -2701,90 +2794,90 @@
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
     </row>
-    <row r="13" spans="1:51" s="31" customFormat="1">
-      <c r="A13" s="26">
+    <row r="13" spans="1:51" s="27" customFormat="1">
+      <c r="A13" s="22">
         <v>11</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>1</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="22">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="23">
         <v>0.38200000000000001</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="23">
         <f t="shared" si="0"/>
         <v>9.5500000000000007</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="29" t="s">
+      <c r="M13" s="24"/>
+      <c r="N13" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="O13" s="26" t="s">
+      <c r="O13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="26" t="s">
+      <c r="P13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="30"/>
-      <c r="AM13" s="30"/>
-      <c r="AN13" s="30"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="30"/>
-      <c r="AQ13" s="30"/>
-      <c r="AR13" s="30"/>
-      <c r="AS13" s="30"/>
-      <c r="AT13" s="30"/>
-      <c r="AU13" s="30"/>
-      <c r="AV13" s="30"/>
-      <c r="AW13" s="30"/>
-      <c r="AX13" s="30"/>
-      <c r="AY13" s="30"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="26"/>
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="26"/>
+      <c r="AU13" s="26"/>
+      <c r="AV13" s="26"/>
+      <c r="AW13" s="26"/>
+      <c r="AX13" s="26"/>
+      <c r="AY13" s="26"/>
     </row>
     <row r="14" spans="1:51" ht="18">
       <c r="A14" s="7">
@@ -2796,7 +2889,7 @@
       <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -2825,7 +2918,7 @@
       <c r="L14" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="17" t="s">
         <v>255</v>
       </c>
       <c r="N14" s="11" t="s">
@@ -2883,7 +2976,7 @@
       <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="19">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -2912,7 +3005,7 @@
       <c r="L15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="17" t="s">
         <v>258</v>
       </c>
       <c r="N15" s="11" t="s">
@@ -2970,7 +3063,7 @@
       <c r="C16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="19">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -2999,7 +3092,7 @@
       <c r="L16" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="17" t="s">
         <v>259</v>
       </c>
       <c r="N16" s="11" t="s">
@@ -3047,175 +3140,175 @@
       <c r="AX16" s="1"/>
       <c r="AY16" s="1"/>
     </row>
-    <row r="17" spans="1:51" s="31" customFormat="1">
-      <c r="A17" s="26">
+    <row r="17" spans="1:51" s="27" customFormat="1">
+      <c r="A17" s="22">
         <v>15</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="22">
         <v>1</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="22">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="23">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="23">
         <f t="shared" si="0"/>
         <v>1.2250000000000001</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="29" t="s">
+      <c r="M17" s="24"/>
+      <c r="N17" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="O17" s="26" t="s">
+      <c r="O17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="P17" s="26" t="s">
+      <c r="P17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="30"/>
-      <c r="AL17" s="30"/>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="30"/>
-      <c r="AO17" s="30"/>
-      <c r="AP17" s="30"/>
-      <c r="AQ17" s="30"/>
-      <c r="AR17" s="30"/>
-      <c r="AS17" s="30"/>
-      <c r="AT17" s="30"/>
-      <c r="AU17" s="30"/>
-      <c r="AV17" s="30"/>
-      <c r="AW17" s="30"/>
-      <c r="AX17" s="30"/>
-      <c r="AY17" s="30"/>
-    </row>
-    <row r="18" spans="1:51" s="31" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="26">
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="26"/>
+      <c r="AY17" s="26"/>
+    </row>
+    <row r="18" spans="1:51" s="27" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A18" s="22">
         <v>16</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="22">
         <v>1</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="22">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="23">
         <v>0.185</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="23">
         <f t="shared" si="0"/>
         <v>4.625</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="M18" s="28"/>
-      <c r="N18" s="29" t="s">
+      <c r="M18" s="24"/>
+      <c r="N18" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="O18" s="26" t="s">
+      <c r="O18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="26" t="s">
+      <c r="P18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="30"/>
-      <c r="AM18" s="30"/>
-      <c r="AN18" s="30"/>
-      <c r="AO18" s="30"/>
-      <c r="AP18" s="30"/>
-      <c r="AQ18" s="30"/>
-      <c r="AR18" s="30"/>
-      <c r="AS18" s="30"/>
-      <c r="AT18" s="30"/>
-      <c r="AU18" s="30"/>
-      <c r="AV18" s="30"/>
-      <c r="AW18" s="30"/>
-      <c r="AX18" s="30"/>
-      <c r="AY18" s="30"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="26"/>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="26"/>
+      <c r="AW18" s="26"/>
+      <c r="AX18" s="26"/>
+      <c r="AY18" s="26"/>
     </row>
     <row r="19" spans="1:51" ht="18">
       <c r="A19" s="7">
@@ -3227,7 +3320,7 @@
       <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -3256,7 +3349,7 @@
       <c r="L19" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="17" t="s">
         <v>263</v>
       </c>
       <c r="N19" s="11" t="s">
@@ -3314,7 +3407,7 @@
       <c r="C20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -3343,7 +3436,7 @@
       <c r="L20" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M20" s="17" t="s">
         <v>263</v>
       </c>
       <c r="N20" s="11" t="s">
@@ -3401,7 +3494,7 @@
       <c r="C21" s="7">
         <v>1</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -3430,7 +3523,7 @@
       <c r="L21" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M21" s="17" t="s">
         <v>263</v>
       </c>
       <c r="N21" s="11" t="s">
@@ -3488,7 +3581,7 @@
       <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -3517,7 +3610,7 @@
       <c r="L22" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="17" t="s">
         <v>265</v>
       </c>
       <c r="N22" s="11" t="s">
@@ -3575,7 +3668,7 @@
       <c r="C23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -3604,7 +3697,7 @@
       <c r="L23" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="M23" s="17" t="s">
         <v>267</v>
       </c>
       <c r="N23" s="11" t="s">
@@ -3662,7 +3755,7 @@
       <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -3691,7 +3784,7 @@
       <c r="L24" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="M24" s="17" t="s">
         <v>270</v>
       </c>
       <c r="N24" s="11" t="s">
@@ -3749,7 +3842,7 @@
       <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -3778,7 +3871,7 @@
       <c r="L25" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="17" t="s">
         <v>271</v>
       </c>
       <c r="N25" s="14" t="s">
@@ -3826,266 +3919,266 @@
       <c r="AX25" s="1"/>
       <c r="AY25" s="1"/>
     </row>
-    <row r="26" spans="1:51" s="38" customFormat="1" ht="18">
-      <c r="A26" s="32">
+    <row r="26" spans="1:51" s="34" customFormat="1" ht="18">
+      <c r="A26" s="28">
         <v>25</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="28">
         <v>6</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="28">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="29">
         <v>0.86099999999999999</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="29">
         <f t="shared" si="2"/>
         <v>129.15</v>
       </c>
-      <c r="L26" s="34" t="s">
+      <c r="L26" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="M26" s="35" t="s">
+      <c r="M26" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="N26" s="36" t="s">
+      <c r="N26" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="O26" s="32" t="s">
+      <c r="O26" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="P26" s="32" t="s">
+      <c r="P26" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="37"/>
-      <c r="AN26" s="37"/>
-      <c r="AO26" s="37"/>
-      <c r="AP26" s="37"/>
-      <c r="AQ26" s="37"/>
-      <c r="AR26" s="37"/>
-      <c r="AS26" s="37"/>
-      <c r="AT26" s="37"/>
-      <c r="AU26" s="37"/>
-      <c r="AV26" s="37"/>
-      <c r="AW26" s="37"/>
-      <c r="AX26" s="37"/>
-      <c r="AY26" s="37"/>
-    </row>
-    <row r="27" spans="1:51" s="38" customFormat="1" ht="18">
-      <c r="A27" s="32">
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
+      <c r="AG26" s="33"/>
+      <c r="AH26" s="33"/>
+      <c r="AI26" s="33"/>
+      <c r="AJ26" s="33"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="33"/>
+      <c r="AM26" s="33"/>
+      <c r="AN26" s="33"/>
+      <c r="AO26" s="33"/>
+      <c r="AP26" s="33"/>
+      <c r="AQ26" s="33"/>
+      <c r="AR26" s="33"/>
+      <c r="AS26" s="33"/>
+      <c r="AT26" s="33"/>
+      <c r="AU26" s="33"/>
+      <c r="AV26" s="33"/>
+      <c r="AW26" s="33"/>
+      <c r="AX26" s="33"/>
+      <c r="AY26" s="33"/>
+    </row>
+    <row r="27" spans="1:51" s="34" customFormat="1" ht="18">
+      <c r="A27" s="28">
         <v>26</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="28">
         <v>2</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="28">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="29">
         <v>1.83</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="29">
         <f t="shared" si="2"/>
         <v>91.5</v>
       </c>
-      <c r="L27" s="34" t="s">
+      <c r="L27" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="M27" s="35" t="s">
+      <c r="M27" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="N27" s="36" t="s">
+      <c r="N27" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="O27" s="32" t="s">
+      <c r="O27" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="P27" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="37"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="37"/>
-      <c r="AM27" s="37"/>
-      <c r="AN27" s="37"/>
-      <c r="AO27" s="37"/>
-      <c r="AP27" s="37"/>
-      <c r="AQ27" s="37"/>
-      <c r="AR27" s="37"/>
-      <c r="AS27" s="37"/>
-      <c r="AT27" s="37"/>
-      <c r="AU27" s="37"/>
-      <c r="AV27" s="37"/>
-      <c r="AW27" s="37"/>
-      <c r="AX27" s="37"/>
-      <c r="AY27" s="37"/>
-    </row>
-    <row r="28" spans="1:51" s="38" customFormat="1" ht="18">
-      <c r="A28" s="32">
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="33"/>
+      <c r="AG27" s="33"/>
+      <c r="AH27" s="33"/>
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="33"/>
+      <c r="AK27" s="33"/>
+      <c r="AL27" s="33"/>
+      <c r="AM27" s="33"/>
+      <c r="AN27" s="33"/>
+      <c r="AO27" s="33"/>
+      <c r="AP27" s="33"/>
+      <c r="AQ27" s="33"/>
+      <c r="AR27" s="33"/>
+      <c r="AS27" s="33"/>
+      <c r="AT27" s="33"/>
+      <c r="AU27" s="33"/>
+      <c r="AV27" s="33"/>
+      <c r="AW27" s="33"/>
+      <c r="AX27" s="33"/>
+      <c r="AY27" s="33"/>
+    </row>
+    <row r="28" spans="1:51" s="34" customFormat="1" ht="18">
+      <c r="A28" s="28">
         <v>27</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="28">
         <v>10</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="28">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="29">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="29">
         <f t="shared" si="2"/>
         <v>5.4999999999999991</v>
       </c>
-      <c r="L28" s="34" t="s">
+      <c r="L28" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="M28" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="N28" s="36" t="s">
+      <c r="N28" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="O28" s="32" t="s">
+      <c r="O28" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="P28" s="32" t="s">
+      <c r="P28" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="37"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="37"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="37"/>
-      <c r="AS28" s="37"/>
-      <c r="AT28" s="37"/>
-      <c r="AU28" s="37"/>
-      <c r="AV28" s="37"/>
-      <c r="AW28" s="37"/>
-      <c r="AX28" s="37"/>
-      <c r="AY28" s="37"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="33"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="33"/>
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="33"/>
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="33"/>
+      <c r="AM28" s="33"/>
+      <c r="AN28" s="33"/>
+      <c r="AO28" s="33"/>
+      <c r="AP28" s="33"/>
+      <c r="AQ28" s="33"/>
+      <c r="AR28" s="33"/>
+      <c r="AS28" s="33"/>
+      <c r="AT28" s="33"/>
+      <c r="AU28" s="33"/>
+      <c r="AV28" s="33"/>
+      <c r="AW28" s="33"/>
+      <c r="AX28" s="33"/>
+      <c r="AY28" s="33"/>
     </row>
     <row r="29" spans="1:51" ht="18" customHeight="1">
       <c r="A29" s="7">
@@ -4097,7 +4190,7 @@
       <c r="C29" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="19">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -4126,7 +4219,7 @@
       <c r="L29" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="M29" s="21" t="s">
+      <c r="M29" s="17" t="s">
         <v>284</v>
       </c>
       <c r="N29" s="14" t="s">
@@ -4180,7 +4273,7 @@
       <c r="C30" s="7">
         <v>4</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="19">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4209,7 +4302,7 @@
       <c r="L30" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="M30" s="21" t="s">
+      <c r="M30" s="17" t="s">
         <v>285</v>
       </c>
       <c r="N30" s="14" t="s">
@@ -4265,7 +4358,7 @@
       <c r="C31" s="7">
         <v>2</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="19">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -4294,7 +4387,7 @@
       <c r="L31" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="M31" s="21" t="s">
+      <c r="M31" s="17" t="s">
         <v>287</v>
       </c>
       <c r="N31" s="14" t="s">
@@ -4350,7 +4443,7 @@
       <c r="C32" s="7">
         <v>1</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -4379,7 +4472,7 @@
       <c r="L32" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="M32" s="21" t="s">
+      <c r="M32" s="17" t="s">
         <v>289</v>
       </c>
       <c r="N32" s="14" t="s">
@@ -4437,7 +4530,7 @@
       <c r="C33" s="7">
         <v>1</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -4466,7 +4559,7 @@
       <c r="L33" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="M33" s="39" t="s">
+      <c r="M33" s="35" t="s">
         <v>291</v>
       </c>
       <c r="N33" s="14" t="s">
@@ -4524,7 +4617,7 @@
       <c r="C34" s="7">
         <v>21</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="19">
         <f t="shared" si="1"/>
         <v>525</v>
       </c>
@@ -4553,7 +4646,7 @@
       <c r="L34" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="M34" s="39" t="s">
+      <c r="M34" s="35" t="s">
         <v>293</v>
       </c>
       <c r="N34" s="11" t="s">
@@ -4611,7 +4704,7 @@
       <c r="C35" s="7">
         <v>1</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -4640,7 +4733,7 @@
       <c r="L35" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="M35" s="39" t="s">
+      <c r="M35" s="35" t="s">
         <v>295</v>
       </c>
       <c r="N35" s="11" t="s">
@@ -4688,7 +4781,7 @@
       <c r="AX35" s="1"/>
       <c r="AY35" s="1"/>
     </row>
-    <row r="36" spans="1:51" ht="18">
+    <row r="36" spans="1:51" ht="25.5">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -4698,7 +4791,7 @@
       <c r="C36" s="7">
         <v>6</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="19">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
@@ -4727,7 +4820,7 @@
       <c r="L36" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="M36" s="39" t="s">
+      <c r="M36" s="35" t="s">
         <v>297</v>
       </c>
       <c r="N36" s="11" t="s">
@@ -4775,7 +4868,7 @@
       <c r="AX36" s="1"/>
       <c r="AY36" s="1"/>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:51" ht="18">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -4785,7 +4878,7 @@
       <c r="C37" s="7">
         <v>1</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -4814,9 +4907,11 @@
       <c r="L37" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="M37" s="10"/>
+      <c r="M37" s="35" t="s">
+        <v>301</v>
+      </c>
       <c r="N37" s="11" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>21</v>
@@ -4860,519 +4955,523 @@
       <c r="AX37" s="1"/>
       <c r="AY37" s="1"/>
     </row>
-    <row r="38" spans="1:51" s="38" customFormat="1" ht="18">
-      <c r="A38" s="32">
+    <row r="38" spans="1:51" s="34" customFormat="1" ht="18">
+      <c r="A38" s="28">
         <v>37</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="28">
         <v>1</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="28">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="H38" s="32" t="s">
+      <c r="H38" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="I38" s="32" t="s">
+      <c r="I38" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J38" s="33">
+      <c r="J38" s="29">
         <v>11.481</v>
       </c>
-      <c r="K38" s="33">
+      <c r="K38" s="29">
         <f t="shared" si="2"/>
         <v>287.02499999999998</v>
       </c>
-      <c r="L38" s="34" t="s">
+      <c r="L38" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="M38" s="40" t="s">
+      <c r="M38" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="N38" s="36" t="s">
+      <c r="N38" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="O38" s="32" t="s">
+      <c r="O38" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P38" s="32" t="s">
+      <c r="P38" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="37"/>
-      <c r="AF38" s="37"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="37"/>
-      <c r="AI38" s="37"/>
-      <c r="AJ38" s="37"/>
-      <c r="AK38" s="37"/>
-      <c r="AL38" s="37"/>
-      <c r="AM38" s="37"/>
-      <c r="AN38" s="37"/>
-      <c r="AO38" s="37"/>
-      <c r="AP38" s="37"/>
-      <c r="AQ38" s="37"/>
-      <c r="AR38" s="37"/>
-      <c r="AS38" s="37"/>
-      <c r="AT38" s="37"/>
-      <c r="AU38" s="37"/>
-      <c r="AV38" s="37"/>
-      <c r="AW38" s="37"/>
-      <c r="AX38" s="37"/>
-      <c r="AY38" s="37"/>
-    </row>
-    <row r="39" spans="1:51">
-      <c r="A39" s="7">
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="33"/>
+      <c r="AE38" s="33"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="33"/>
+      <c r="AH38" s="33"/>
+      <c r="AI38" s="33"/>
+      <c r="AJ38" s="33"/>
+      <c r="AK38" s="33"/>
+      <c r="AL38" s="33"/>
+      <c r="AM38" s="33"/>
+      <c r="AN38" s="33"/>
+      <c r="AO38" s="33"/>
+      <c r="AP38" s="33"/>
+      <c r="AQ38" s="33"/>
+      <c r="AR38" s="33"/>
+      <c r="AS38" s="33"/>
+      <c r="AT38" s="33"/>
+      <c r="AU38" s="33"/>
+      <c r="AV38" s="33"/>
+      <c r="AW38" s="33"/>
+      <c r="AX38" s="33"/>
+      <c r="AY38" s="33"/>
+    </row>
+    <row r="39" spans="1:51" s="34" customFormat="1">
+      <c r="A39" s="28">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="28">
         <v>2</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="28">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="29">
         <v>3.7229999999999999</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="29">
         <f t="shared" si="2"/>
         <v>186.15</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="M39" s="10"/>
-      <c r="N39" s="11" t="s">
+      <c r="M39" s="30"/>
+      <c r="N39" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="O39" s="7" t="s">
+      <c r="O39" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="P39" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
-      <c r="AU39" s="1"/>
-      <c r="AV39" s="1"/>
-      <c r="AW39" s="1"/>
-      <c r="AX39" s="1"/>
-      <c r="AY39" s="1"/>
-    </row>
-    <row r="40" spans="1:51">
-      <c r="A40" s="7">
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="33"/>
+      <c r="AH39" s="33"/>
+      <c r="AI39" s="33"/>
+      <c r="AJ39" s="33"/>
+      <c r="AK39" s="33"/>
+      <c r="AL39" s="33"/>
+      <c r="AM39" s="33"/>
+      <c r="AN39" s="33"/>
+      <c r="AO39" s="33"/>
+      <c r="AP39" s="33"/>
+      <c r="AQ39" s="33"/>
+      <c r="AR39" s="33"/>
+      <c r="AS39" s="33"/>
+      <c r="AT39" s="33"/>
+      <c r="AU39" s="33"/>
+      <c r="AV39" s="33"/>
+      <c r="AW39" s="33"/>
+      <c r="AX39" s="33"/>
+      <c r="AY39" s="33"/>
+    </row>
+    <row r="40" spans="1:51" s="34" customFormat="1">
+      <c r="A40" s="28">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="28">
         <v>1</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="28">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="29">
         <v>0.60199999999999998</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="29">
         <f t="shared" si="2"/>
         <v>15.049999999999999</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="M40" s="10"/>
-      <c r="N40" s="11" t="s">
+      <c r="M40" s="30"/>
+      <c r="N40" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="O40" s="7" t="s">
+      <c r="O40" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="P40" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
-      <c r="AG40" s="1"/>
-      <c r="AH40" s="1"/>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
-      <c r="AP40" s="1"/>
-      <c r="AQ40" s="1"/>
-      <c r="AR40" s="1"/>
-      <c r="AS40" s="1"/>
-      <c r="AT40" s="1"/>
-      <c r="AU40" s="1"/>
-      <c r="AV40" s="1"/>
-      <c r="AW40" s="1"/>
-      <c r="AX40" s="1"/>
-      <c r="AY40" s="1"/>
-    </row>
-    <row r="41" spans="1:51">
-      <c r="A41" s="7">
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="33"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="33"/>
+      <c r="AG40" s="33"/>
+      <c r="AH40" s="33"/>
+      <c r="AI40" s="33"/>
+      <c r="AJ40" s="33"/>
+      <c r="AK40" s="33"/>
+      <c r="AL40" s="33"/>
+      <c r="AM40" s="33"/>
+      <c r="AN40" s="33"/>
+      <c r="AO40" s="33"/>
+      <c r="AP40" s="33"/>
+      <c r="AQ40" s="33"/>
+      <c r="AR40" s="33"/>
+      <c r="AS40" s="33"/>
+      <c r="AT40" s="33"/>
+      <c r="AU40" s="33"/>
+      <c r="AV40" s="33"/>
+      <c r="AW40" s="33"/>
+      <c r="AX40" s="33"/>
+      <c r="AY40" s="33"/>
+    </row>
+    <row r="41" spans="1:51" s="34" customFormat="1" ht="18">
+      <c r="A41" s="28">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="28">
         <v>1</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="28">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="29">
         <v>0.80400000000000005</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="29">
         <f t="shared" si="2"/>
         <v>20.100000000000001</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L41" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="M41" s="10"/>
-      <c r="N41" s="11" t="s">
+      <c r="M41" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="N41" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="O41" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="O41" s="7" t="s">
+      <c r="P41" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
-      <c r="AQ41" s="1"/>
-      <c r="AR41" s="1"/>
-      <c r="AS41" s="1"/>
-      <c r="AT41" s="1"/>
-      <c r="AU41" s="1"/>
-      <c r="AV41" s="1"/>
-      <c r="AW41" s="1"/>
-      <c r="AX41" s="1"/>
-      <c r="AY41" s="1"/>
-    </row>
-    <row r="42" spans="1:51">
-      <c r="A42" s="7">
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="33"/>
+      <c r="AD41" s="33"/>
+      <c r="AE41" s="33"/>
+      <c r="AF41" s="33"/>
+      <c r="AG41" s="33"/>
+      <c r="AH41" s="33"/>
+      <c r="AI41" s="33"/>
+      <c r="AJ41" s="33"/>
+      <c r="AK41" s="33"/>
+      <c r="AL41" s="33"/>
+      <c r="AM41" s="33"/>
+      <c r="AN41" s="33"/>
+      <c r="AO41" s="33"/>
+      <c r="AP41" s="33"/>
+      <c r="AQ41" s="33"/>
+      <c r="AR41" s="33"/>
+      <c r="AS41" s="33"/>
+      <c r="AT41" s="33"/>
+      <c r="AU41" s="33"/>
+      <c r="AV41" s="33"/>
+      <c r="AW41" s="33"/>
+      <c r="AX41" s="33"/>
+      <c r="AY41" s="33"/>
+    </row>
+    <row r="42" spans="1:51" s="34" customFormat="1">
+      <c r="A42" s="28">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="28">
         <v>4</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="28">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="29">
         <v>0.05</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="29">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="L42" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="M42" s="10"/>
-      <c r="N42" s="11" t="s">
+      <c r="M42" s="30"/>
+      <c r="N42" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="O42" s="7" t="s">
+      <c r="O42" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="P42" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
-      <c r="AF42" s="1"/>
-      <c r="AG42" s="1"/>
-      <c r="AH42" s="1"/>
-      <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="1"/>
-      <c r="AM42" s="1"/>
-      <c r="AN42" s="1"/>
-      <c r="AO42" s="1"/>
-      <c r="AP42" s="1"/>
-      <c r="AQ42" s="1"/>
-      <c r="AR42" s="1"/>
-      <c r="AS42" s="1"/>
-      <c r="AT42" s="1"/>
-      <c r="AU42" s="1"/>
-      <c r="AV42" s="1"/>
-      <c r="AW42" s="1"/>
-      <c r="AX42" s="1"/>
-      <c r="AY42" s="1"/>
-    </row>
-    <row r="43" spans="1:51">
-      <c r="A43" s="7">
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="33"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="33"/>
+      <c r="AA42" s="33"/>
+      <c r="AB42" s="33"/>
+      <c r="AC42" s="33"/>
+      <c r="AD42" s="33"/>
+      <c r="AE42" s="33"/>
+      <c r="AF42" s="33"/>
+      <c r="AG42" s="33"/>
+      <c r="AH42" s="33"/>
+      <c r="AI42" s="33"/>
+      <c r="AJ42" s="33"/>
+      <c r="AK42" s="33"/>
+      <c r="AL42" s="33"/>
+      <c r="AM42" s="33"/>
+      <c r="AN42" s="33"/>
+      <c r="AO42" s="33"/>
+      <c r="AP42" s="33"/>
+      <c r="AQ42" s="33"/>
+      <c r="AR42" s="33"/>
+      <c r="AS42" s="33"/>
+      <c r="AT42" s="33"/>
+      <c r="AU42" s="33"/>
+      <c r="AV42" s="33"/>
+      <c r="AW42" s="33"/>
+      <c r="AX42" s="33"/>
+      <c r="AY42" s="33"/>
+    </row>
+    <row r="43" spans="1:51" s="34" customFormat="1" ht="18">
+      <c r="A43" s="28">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="28">
         <v>1</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="28">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="29">
         <v>0.253</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="29">
         <f t="shared" si="2"/>
         <v>6.3250000000000002</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="11" t="s">
+      <c r="M43" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="N43" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="O43" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="7" t="s">
+      <c r="P43" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P43" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
-      <c r="AQ43" s="1"/>
-      <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
-      <c r="AU43" s="1"/>
-      <c r="AV43" s="1"/>
-      <c r="AW43" s="1"/>
-      <c r="AX43" s="1"/>
-      <c r="AY43" s="1"/>
-    </row>
-    <row r="44" spans="1:51">
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="33"/>
+      <c r="AC43" s="33"/>
+      <c r="AD43" s="33"/>
+      <c r="AE43" s="33"/>
+      <c r="AF43" s="33"/>
+      <c r="AG43" s="33"/>
+      <c r="AH43" s="33"/>
+      <c r="AI43" s="33"/>
+      <c r="AJ43" s="33"/>
+      <c r="AK43" s="33"/>
+      <c r="AL43" s="33"/>
+      <c r="AM43" s="33"/>
+      <c r="AN43" s="33"/>
+      <c r="AO43" s="33"/>
+      <c r="AP43" s="33"/>
+      <c r="AQ43" s="33"/>
+      <c r="AR43" s="33"/>
+      <c r="AS43" s="33"/>
+      <c r="AT43" s="33"/>
+      <c r="AU43" s="33"/>
+      <c r="AV43" s="33"/>
+      <c r="AW43" s="33"/>
+      <c r="AX43" s="33"/>
+      <c r="AY43" s="33"/>
+    </row>
+    <row r="44" spans="1:51" ht="18">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -5382,7 +5481,7 @@
       <c r="C44" s="7">
         <v>1</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -5411,9 +5510,11 @@
       <c r="L44" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="M44" s="10"/>
+      <c r="M44" s="35" t="s">
+        <v>307</v>
+      </c>
       <c r="N44" s="11" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>21</v>
@@ -5459,21 +5560,25 @@
     </row>
     <row r="45" spans="1:51">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="I45" s="1"/>
-      <c r="J45" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="K45" s="13">
-        <f>SUM(K3:K44)</f>
-        <v>860.80000000000007</v>
-      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="15"/>
       <c r="O45" s="1"/>
@@ -5518,7 +5623,7 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="24"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -5566,12 +5671,21 @@
     </row>
     <row r="47" spans="1:51">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="L47" s="1"/>
@@ -5618,7 +5732,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="24"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -5666,10 +5780,18 @@
     </row>
     <row r="49" spans="1:51">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -5720,7 +5842,7 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="24"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -5768,12 +5890,24 @@
     </row>
     <row r="51" spans="1:51">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="B51" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="C51" s="42">
+        <v>1</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>321</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="L51" s="1"/>
@@ -5820,7 +5954,7 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="24"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -5870,12 +6004,19 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="24"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
+      <c r="J53" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K53" s="13">
+        <f>SUM(K3:K44)</f>
+        <v>860.80000000000007</v>
+      </c>
       <c r="L53" s="1"/>
       <c r="M53" s="15"/>
       <c r="O53" s="1"/>
@@ -5920,7 +6061,7 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="24"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -5970,7 +6111,7 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="24"/>
+      <c r="D55" s="20"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -6020,7 +6161,7 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="24"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -6070,7 +6211,7 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="24"/>
+      <c r="D57" s="20"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -6120,7 +6261,7 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="24"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -6170,7 +6311,7 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="24"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -6220,7 +6361,7 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="24"/>
+      <c r="D60" s="20"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -6270,7 +6411,7 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="24"/>
+      <c r="D61" s="20"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -6320,7 +6461,7 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="24"/>
+      <c r="D62" s="20"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -6370,7 +6511,7 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="24"/>
+      <c r="D63" s="20"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -6420,7 +6561,7 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="24"/>
+      <c r="D64" s="20"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -6470,7 +6611,7 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="24"/>
+      <c r="D65" s="20"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -6520,7 +6661,7 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="24"/>
+      <c r="D66" s="20"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -6570,7 +6711,7 @@
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="24"/>
+      <c r="D67" s="20"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -6620,7 +6761,7 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="24"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -6670,7 +6811,7 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="24"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -6720,7 +6861,7 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="24"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -6770,7 +6911,7 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="24"/>
+      <c r="D71" s="20"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -6820,7 +6961,7 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="24"/>
+      <c r="D72" s="20"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -6870,7 +7011,7 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="24"/>
+      <c r="D73" s="20"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -6920,7 +7061,7 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="24"/>
+      <c r="D74" s="20"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -6970,7 +7111,7 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="24"/>
+      <c r="D75" s="20"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -7020,7 +7161,7 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="24"/>
+      <c r="D76" s="20"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -7070,7 +7211,7 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="24"/>
+      <c r="D77" s="20"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -7120,7 +7261,7 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="24"/>
+      <c r="D78" s="20"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -7170,7 +7311,7 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="24"/>
+      <c r="D79" s="20"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -7220,7 +7361,7 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="24"/>
+      <c r="D80" s="20"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -7270,7 +7411,7 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="24"/>
+      <c r="D81" s="20"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -7320,7 +7461,7 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="24"/>
+      <c r="D82" s="20"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -7370,7 +7511,7 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="24"/>
+      <c r="D83" s="20"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -7420,7 +7561,7 @@
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="24"/>
+      <c r="D84" s="20"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -7470,7 +7611,7 @@
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="24"/>
+      <c r="D85" s="20"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -7520,7 +7661,7 @@
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="24"/>
+      <c r="D86" s="20"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -7570,7 +7711,7 @@
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="24"/>
+      <c r="D87" s="20"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -7620,7 +7761,7 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="24"/>
+      <c r="D88" s="20"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -7670,7 +7811,7 @@
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="24"/>
+      <c r="D89" s="20"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -7720,7 +7861,7 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="24"/>
+      <c r="D90" s="20"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -7770,7 +7911,7 @@
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="24"/>
+      <c r="D91" s="20"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -7820,7 +7961,7 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="24"/>
+      <c r="D92" s="20"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -7870,7 +8011,7 @@
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="24"/>
+      <c r="D93" s="20"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -7920,7 +8061,7 @@
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="24"/>
+      <c r="D94" s="20"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -7970,7 +8111,7 @@
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="24"/>
+      <c r="D95" s="20"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -8020,7 +8161,7 @@
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="24"/>
+      <c r="D96" s="20"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -8070,7 +8211,7 @@
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="24"/>
+      <c r="D97" s="20"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -8120,7 +8261,7 @@
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="24"/>
+      <c r="D98" s="20"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -8170,7 +8311,7 @@
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="24"/>
+      <c r="D99" s="20"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -8220,7 +8361,7 @@
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="24"/>
+      <c r="D100" s="20"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -8270,7 +8411,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="24"/>
+      <c r="D101" s="20"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -8320,7 +8461,7 @@
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="24"/>
+      <c r="D102" s="20"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -8370,7 +8511,7 @@
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="24"/>
+      <c r="D103" s="20"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -8420,7 +8561,7 @@
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="24"/>
+      <c r="D104" s="20"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -8470,7 +8611,7 @@
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="24"/>
+      <c r="D105" s="20"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -8520,7 +8661,7 @@
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="24"/>
+      <c r="D106" s="20"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -8570,7 +8711,7 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="24"/>
+      <c r="D107" s="20"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -8620,7 +8761,7 @@
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="24"/>
+      <c r="D108" s="20"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -8670,7 +8811,7 @@
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="24"/>
+      <c r="D109" s="20"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -8720,7 +8861,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="24"/>
+      <c r="D110" s="20"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -8770,7 +8911,7 @@
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="24"/>
+      <c r="D111" s="20"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -8820,7 +8961,7 @@
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="24"/>
+      <c r="D112" s="20"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -8870,7 +9011,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="24"/>
+      <c r="D113" s="20"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -8920,7 +9061,7 @@
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="24"/>
+      <c r="D114" s="20"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -8970,7 +9111,7 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="24"/>
+      <c r="D115" s="20"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -9020,7 +9161,7 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="24"/>
+      <c r="D116" s="20"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -9070,7 +9211,7 @@
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="24"/>
+      <c r="D117" s="20"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -9120,7 +9261,7 @@
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="24"/>
+      <c r="D118" s="20"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -9170,7 +9311,7 @@
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="24"/>
+      <c r="D119" s="20"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -9220,7 +9361,7 @@
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="24"/>
+      <c r="D120" s="20"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -9270,7 +9411,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="24"/>
+      <c r="D121" s="20"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -9320,7 +9461,7 @@
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="24"/>
+      <c r="D122" s="20"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -9370,7 +9511,7 @@
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="24"/>
+      <c r="D123" s="20"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -9420,7 +9561,7 @@
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="24"/>
+      <c r="D124" s="20"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -9470,7 +9611,7 @@
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="24"/>
+      <c r="D125" s="20"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -9520,7 +9661,7 @@
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="24"/>
+      <c r="D126" s="20"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -9570,7 +9711,7 @@
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="24"/>
+      <c r="D127" s="20"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -9620,7 +9761,7 @@
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="24"/>
+      <c r="D128" s="20"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -9670,7 +9811,7 @@
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="24"/>
+      <c r="D129" s="20"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -9720,7 +9861,7 @@
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="24"/>
+      <c r="D130" s="20"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -9770,7 +9911,7 @@
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="24"/>
+      <c r="D131" s="20"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -9820,7 +9961,7 @@
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="24"/>
+      <c r="D132" s="20"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -9870,7 +10011,7 @@
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="24"/>
+      <c r="D133" s="20"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -9920,7 +10061,7 @@
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="24"/>
+      <c r="D134" s="20"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -9970,7 +10111,7 @@
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="24"/>
+      <c r="D135" s="20"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -10020,7 +10161,7 @@
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="24"/>
+      <c r="D136" s="20"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -10070,7 +10211,7 @@
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="24"/>
+      <c r="D137" s="20"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -10120,7 +10261,7 @@
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="24"/>
+      <c r="D138" s="20"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -10170,7 +10311,7 @@
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="24"/>
+      <c r="D139" s="20"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -10220,7 +10361,7 @@
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="24"/>
+      <c r="D140" s="20"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -10270,7 +10411,7 @@
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="24"/>
+      <c r="D141" s="20"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -10320,7 +10461,7 @@
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="24"/>
+      <c r="D142" s="20"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -10370,7 +10511,7 @@
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
-      <c r="D143" s="24"/>
+      <c r="D143" s="20"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -10420,7 +10561,7 @@
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="24"/>
+      <c r="D144" s="20"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -10470,7 +10611,7 @@
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="24"/>
+      <c r="D145" s="20"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -10520,7 +10661,7 @@
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="24"/>
+      <c r="D146" s="20"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -10570,7 +10711,7 @@
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="24"/>
+      <c r="D147" s="20"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -10620,7 +10761,7 @@
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="24"/>
+      <c r="D148" s="20"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -10670,7 +10811,7 @@
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="24"/>
+      <c r="D149" s="20"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -10720,7 +10861,7 @@
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="24"/>
+      <c r="D150" s="20"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -10770,7 +10911,7 @@
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="24"/>
+      <c r="D151" s="20"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -10820,7 +10961,7 @@
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="24"/>
+      <c r="D152" s="20"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -10870,7 +11011,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="24"/>
+      <c r="D153" s="20"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -10920,7 +11061,7 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="24"/>
+      <c r="D154" s="20"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -10970,7 +11111,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="24"/>
+      <c r="D155" s="20"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -11020,7 +11161,7 @@
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="24"/>
+      <c r="D156" s="20"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -11070,7 +11211,7 @@
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="24"/>
+      <c r="D157" s="20"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -11120,7 +11261,7 @@
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="24"/>
+      <c r="D158" s="20"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -11170,7 +11311,7 @@
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="24"/>
+      <c r="D159" s="20"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -11220,7 +11361,7 @@
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
-      <c r="D160" s="24"/>
+      <c r="D160" s="20"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -11270,7 +11411,7 @@
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="24"/>
+      <c r="D161" s="20"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -11320,7 +11461,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="24"/>
+      <c r="D162" s="20"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -11370,7 +11511,7 @@
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="24"/>
+      <c r="D163" s="20"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -11420,7 +11561,7 @@
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="24"/>
+      <c r="D164" s="20"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -11470,7 +11611,7 @@
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="24"/>
+      <c r="D165" s="20"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -11520,7 +11661,7 @@
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="24"/>
+      <c r="D166" s="20"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -11570,7 +11711,7 @@
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
-      <c r="D167" s="24"/>
+      <c r="D167" s="20"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -11620,7 +11761,7 @@
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
-      <c r="D168" s="24"/>
+      <c r="D168" s="20"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -11670,7 +11811,7 @@
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
-      <c r="D169" s="24"/>
+      <c r="D169" s="20"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -11720,7 +11861,7 @@
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
-      <c r="D170" s="24"/>
+      <c r="D170" s="20"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -11770,7 +11911,7 @@
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
-      <c r="D171" s="24"/>
+      <c r="D171" s="20"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -11820,7 +11961,7 @@
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
-      <c r="D172" s="24"/>
+      <c r="D172" s="20"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -11870,7 +12011,7 @@
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
-      <c r="D173" s="24"/>
+      <c r="D173" s="20"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -11920,7 +12061,7 @@
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="24"/>
+      <c r="D174" s="20"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -11970,7 +12111,7 @@
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
-      <c r="D175" s="24"/>
+      <c r="D175" s="20"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -12020,7 +12161,7 @@
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
-      <c r="D176" s="24"/>
+      <c r="D176" s="20"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -12070,7 +12211,7 @@
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
-      <c r="D177" s="24"/>
+      <c r="D177" s="20"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -12120,7 +12261,7 @@
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
-      <c r="D178" s="24"/>
+      <c r="D178" s="20"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -12170,7 +12311,7 @@
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
-      <c r="D179" s="24"/>
+      <c r="D179" s="20"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -12220,7 +12361,7 @@
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="24"/>
+      <c r="D180" s="20"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -12270,7 +12411,7 @@
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
-      <c r="D181" s="24"/>
+      <c r="D181" s="20"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -12320,7 +12461,7 @@
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
-      <c r="D182" s="24"/>
+      <c r="D182" s="20"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -12370,7 +12511,7 @@
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
-      <c r="D183" s="24"/>
+      <c r="D183" s="20"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -12420,7 +12561,7 @@
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="24"/>
+      <c r="D184" s="20"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
@@ -12470,7 +12611,7 @@
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
-      <c r="D185" s="24"/>
+      <c r="D185" s="20"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -12520,7 +12661,7 @@
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
-      <c r="D186" s="24"/>
+      <c r="D186" s="20"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
@@ -12570,7 +12711,7 @@
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
-      <c r="D187" s="24"/>
+      <c r="D187" s="20"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -12620,7 +12761,7 @@
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
-      <c r="D188" s="24"/>
+      <c r="D188" s="20"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
@@ -12670,7 +12811,7 @@
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
-      <c r="D189" s="24"/>
+      <c r="D189" s="20"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -12720,7 +12861,7 @@
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
-      <c r="D190" s="24"/>
+      <c r="D190" s="20"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -12770,7 +12911,7 @@
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
-      <c r="D191" s="24"/>
+      <c r="D191" s="20"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -12820,7 +12961,7 @@
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
-      <c r="D192" s="24"/>
+      <c r="D192" s="20"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
@@ -12870,7 +13011,7 @@
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
-      <c r="D193" s="24"/>
+      <c r="D193" s="20"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -12920,7 +13061,7 @@
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
-      <c r="D194" s="24"/>
+      <c r="D194" s="20"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -12970,7 +13111,7 @@
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
-      <c r="D195" s="24"/>
+      <c r="D195" s="20"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -13020,7 +13161,7 @@
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
-      <c r="D196" s="24"/>
+      <c r="D196" s="20"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -13070,7 +13211,7 @@
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
-      <c r="D197" s="24"/>
+      <c r="D197" s="20"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
@@ -13120,7 +13261,7 @@
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
-      <c r="D198" s="24"/>
+      <c r="D198" s="20"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
@@ -13170,7 +13311,7 @@
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
-      <c r="D199" s="24"/>
+      <c r="D199" s="20"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -13220,7 +13361,7 @@
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
-      <c r="D200" s="24"/>
+      <c r="D200" s="20"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -13270,7 +13411,7 @@
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
-      <c r="D201" s="24"/>
+      <c r="D201" s="20"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -13320,7 +13461,7 @@
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
-      <c r="D202" s="24"/>
+      <c r="D202" s="20"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
@@ -13370,7 +13511,7 @@
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
-      <c r="D203" s="24"/>
+      <c r="D203" s="20"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
@@ -13420,7 +13561,7 @@
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
-      <c r="D204" s="24"/>
+      <c r="D204" s="20"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
@@ -13470,7 +13611,7 @@
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
-      <c r="D205" s="24"/>
+      <c r="D205" s="20"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
@@ -13520,7 +13661,7 @@
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
-      <c r="D206" s="24"/>
+      <c r="D206" s="20"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -13570,7 +13711,7 @@
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
-      <c r="D207" s="24"/>
+      <c r="D207" s="20"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
@@ -13620,7 +13761,7 @@
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
-      <c r="D208" s="24"/>
+      <c r="D208" s="20"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
@@ -13670,7 +13811,7 @@
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
-      <c r="D209" s="24"/>
+      <c r="D209" s="20"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
@@ -13720,7 +13861,7 @@
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
-      <c r="D210" s="24"/>
+      <c r="D210" s="20"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
@@ -13770,7 +13911,7 @@
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
-      <c r="D211" s="24"/>
+      <c r="D211" s="20"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
@@ -13820,7 +13961,7 @@
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
-      <c r="D212" s="24"/>
+      <c r="D212" s="20"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
@@ -13870,7 +14011,7 @@
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
-      <c r="D213" s="24"/>
+      <c r="D213" s="20"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
@@ -13920,7 +14061,7 @@
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
-      <c r="D214" s="24"/>
+      <c r="D214" s="20"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
@@ -13970,7 +14111,7 @@
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
-      <c r="D215" s="24"/>
+      <c r="D215" s="20"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
@@ -14020,7 +14161,7 @@
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
-      <c r="D216" s="24"/>
+      <c r="D216" s="20"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -14070,7 +14211,7 @@
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
-      <c r="D217" s="24"/>
+      <c r="D217" s="20"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -14120,7 +14261,7 @@
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
-      <c r="D218" s="24"/>
+      <c r="D218" s="20"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
@@ -14170,7 +14311,7 @@
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
-      <c r="D219" s="24"/>
+      <c r="D219" s="20"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -14220,7 +14361,7 @@
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
-      <c r="D220" s="24"/>
+      <c r="D220" s="20"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -14270,7 +14411,7 @@
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
-      <c r="D221" s="24"/>
+      <c r="D221" s="20"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -14320,7 +14461,7 @@
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
-      <c r="D222" s="24"/>
+      <c r="D222" s="20"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
@@ -14370,7 +14511,7 @@
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
-      <c r="D223" s="24"/>
+      <c r="D223" s="20"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
@@ -14420,7 +14561,7 @@
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
-      <c r="D224" s="24"/>
+      <c r="D224" s="20"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
@@ -14470,7 +14611,7 @@
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
-      <c r="D225" s="24"/>
+      <c r="D225" s="20"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
@@ -14520,7 +14661,7 @@
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
-      <c r="D226" s="24"/>
+      <c r="D226" s="20"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -14570,7 +14711,7 @@
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
-      <c r="D227" s="24"/>
+      <c r="D227" s="20"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -14620,7 +14761,7 @@
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
-      <c r="D228" s="24"/>
+      <c r="D228" s="20"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -14670,7 +14811,7 @@
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
-      <c r="D229" s="24"/>
+      <c r="D229" s="20"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -14720,7 +14861,7 @@
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
-      <c r="D230" s="24"/>
+      <c r="D230" s="20"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -14770,7 +14911,7 @@
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
-      <c r="D231" s="24"/>
+      <c r="D231" s="20"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -14820,7 +14961,7 @@
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
-      <c r="D232" s="24"/>
+      <c r="D232" s="20"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
@@ -14870,7 +15011,7 @@
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
-      <c r="D233" s="24"/>
+      <c r="D233" s="20"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
@@ -14920,7 +15061,7 @@
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
-      <c r="D234" s="24"/>
+      <c r="D234" s="20"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
@@ -14970,7 +15111,7 @@
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
-      <c r="D235" s="24"/>
+      <c r="D235" s="20"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
@@ -15020,7 +15161,7 @@
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
-      <c r="D236" s="24"/>
+      <c r="D236" s="20"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
@@ -15070,7 +15211,7 @@
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
-      <c r="D237" s="24"/>
+      <c r="D237" s="20"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
@@ -15120,7 +15261,7 @@
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
-      <c r="D238" s="24"/>
+      <c r="D238" s="20"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
@@ -15170,7 +15311,7 @@
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
-      <c r="D239" s="24"/>
+      <c r="D239" s="20"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
@@ -15220,7 +15361,7 @@
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
-      <c r="D240" s="24"/>
+      <c r="D240" s="20"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -15270,7 +15411,7 @@
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
-      <c r="D241" s="24"/>
+      <c r="D241" s="20"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -15320,7 +15461,7 @@
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
-      <c r="D242" s="24"/>
+      <c r="D242" s="20"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
@@ -15370,7 +15511,7 @@
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
-      <c r="D243" s="24"/>
+      <c r="D243" s="20"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
@@ -15420,7 +15561,7 @@
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
-      <c r="D244" s="24"/>
+      <c r="D244" s="20"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
@@ -15470,7 +15611,7 @@
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
-      <c r="D245" s="24"/>
+      <c r="D245" s="20"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
@@ -15520,7 +15661,7 @@
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
-      <c r="D246" s="24"/>
+      <c r="D246" s="20"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
@@ -15570,7 +15711,7 @@
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
-      <c r="D247" s="24"/>
+      <c r="D247" s="20"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
@@ -15620,7 +15761,7 @@
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
-      <c r="D248" s="24"/>
+      <c r="D248" s="20"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
@@ -15670,7 +15811,7 @@
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
-      <c r="D249" s="24"/>
+      <c r="D249" s="20"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
@@ -15720,7 +15861,7 @@
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
-      <c r="D250" s="24"/>
+      <c r="D250" s="20"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
@@ -15770,7 +15911,7 @@
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
-      <c r="D251" s="24"/>
+      <c r="D251" s="20"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
@@ -15820,7 +15961,7 @@
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
-      <c r="D252" s="24"/>
+      <c r="D252" s="20"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
@@ -15870,7 +16011,7 @@
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
-      <c r="D253" s="24"/>
+      <c r="D253" s="20"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
@@ -15920,7 +16061,7 @@
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
-      <c r="D254" s="24"/>
+      <c r="D254" s="20"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
@@ -15970,7 +16111,7 @@
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
-      <c r="D255" s="24"/>
+      <c r="D255" s="20"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
@@ -16020,7 +16161,7 @@
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
-      <c r="D256" s="24"/>
+      <c r="D256" s="20"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
@@ -16070,7 +16211,7 @@
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
-      <c r="D257" s="24"/>
+      <c r="D257" s="20"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
@@ -16120,7 +16261,7 @@
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
-      <c r="D258" s="24"/>
+      <c r="D258" s="20"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
@@ -16170,7 +16311,7 @@
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
-      <c r="D259" s="24"/>
+      <c r="D259" s="20"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
@@ -16220,7 +16361,7 @@
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
-      <c r="D260" s="24"/>
+      <c r="D260" s="20"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
@@ -16270,7 +16411,7 @@
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
-      <c r="D261" s="24"/>
+      <c r="D261" s="20"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
@@ -16320,7 +16461,7 @@
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
-      <c r="D262" s="24"/>
+      <c r="D262" s="20"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
@@ -16370,7 +16511,7 @@
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
-      <c r="D263" s="24"/>
+      <c r="D263" s="20"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
@@ -16420,7 +16561,7 @@
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
-      <c r="D264" s="24"/>
+      <c r="D264" s="20"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
@@ -16470,7 +16611,7 @@
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
-      <c r="D265" s="24"/>
+      <c r="D265" s="20"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
@@ -16520,7 +16661,7 @@
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
-      <c r="D266" s="24"/>
+      <c r="D266" s="20"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
@@ -16570,7 +16711,7 @@
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
-      <c r="D267" s="24"/>
+      <c r="D267" s="20"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
@@ -16620,7 +16761,7 @@
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
-      <c r="D268" s="24"/>
+      <c r="D268" s="20"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
@@ -16670,7 +16811,7 @@
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
-      <c r="D269" s="24"/>
+      <c r="D269" s="20"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
@@ -16720,7 +16861,7 @@
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
-      <c r="D270" s="24"/>
+      <c r="D270" s="20"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
@@ -16770,7 +16911,7 @@
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
-      <c r="D271" s="24"/>
+      <c r="D271" s="20"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
@@ -16820,7 +16961,7 @@
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
-      <c r="D272" s="24"/>
+      <c r="D272" s="20"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
@@ -16870,7 +17011,7 @@
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
-      <c r="D273" s="24"/>
+      <c r="D273" s="20"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
@@ -16920,7 +17061,7 @@
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
-      <c r="D274" s="24"/>
+      <c r="D274" s="20"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
@@ -16970,7 +17111,7 @@
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
-      <c r="D275" s="24"/>
+      <c r="D275" s="20"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
@@ -17020,7 +17161,7 @@
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
-      <c r="D276" s="24"/>
+      <c r="D276" s="20"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
@@ -17070,7 +17211,7 @@
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
-      <c r="D277" s="24"/>
+      <c r="D277" s="20"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
@@ -17120,7 +17261,7 @@
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
-      <c r="D278" s="24"/>
+      <c r="D278" s="20"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
@@ -17170,7 +17311,7 @@
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
-      <c r="D279" s="24"/>
+      <c r="D279" s="20"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
@@ -17220,7 +17361,7 @@
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
-      <c r="D280" s="24"/>
+      <c r="D280" s="20"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
@@ -17270,7 +17411,7 @@
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
-      <c r="D281" s="24"/>
+      <c r="D281" s="20"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
@@ -17320,7 +17461,7 @@
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
-      <c r="D282" s="24"/>
+      <c r="D282" s="20"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
@@ -17370,7 +17511,7 @@
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
-      <c r="D283" s="24"/>
+      <c r="D283" s="20"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
@@ -17420,7 +17561,7 @@
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
-      <c r="D284" s="24"/>
+      <c r="D284" s="20"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
@@ -17470,7 +17611,7 @@
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
-      <c r="D285" s="24"/>
+      <c r="D285" s="20"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
@@ -17520,7 +17661,7 @@
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
-      <c r="D286" s="24"/>
+      <c r="D286" s="20"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
@@ -17570,7 +17711,7 @@
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
-      <c r="D287" s="24"/>
+      <c r="D287" s="20"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
@@ -17620,7 +17761,7 @@
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
-      <c r="D288" s="24"/>
+      <c r="D288" s="20"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
@@ -17670,7 +17811,7 @@
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
-      <c r="D289" s="24"/>
+      <c r="D289" s="20"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
@@ -17720,7 +17861,7 @@
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
-      <c r="D290" s="24"/>
+      <c r="D290" s="20"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
@@ -17770,7 +17911,7 @@
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
-      <c r="D291" s="24"/>
+      <c r="D291" s="20"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
@@ -17820,7 +17961,7 @@
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
-      <c r="D292" s="24"/>
+      <c r="D292" s="20"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
@@ -17870,7 +18011,7 @@
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
-      <c r="D293" s="24"/>
+      <c r="D293" s="20"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
@@ -17920,7 +18061,7 @@
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
-      <c r="D294" s="24"/>
+      <c r="D294" s="20"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
@@ -17970,7 +18111,7 @@
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
-      <c r="D295" s="24"/>
+      <c r="D295" s="20"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
@@ -18020,7 +18161,7 @@
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
-      <c r="D296" s="24"/>
+      <c r="D296" s="20"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
@@ -18070,7 +18211,7 @@
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
-      <c r="D297" s="24"/>
+      <c r="D297" s="20"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
@@ -18120,7 +18261,7 @@
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
-      <c r="D298" s="24"/>
+      <c r="D298" s="20"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
@@ -18170,7 +18311,7 @@
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
-      <c r="D299" s="24"/>
+      <c r="D299" s="20"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
@@ -18220,7 +18361,7 @@
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
-      <c r="D300" s="24"/>
+      <c r="D300" s="20"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
@@ -18270,7 +18411,7 @@
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
-      <c r="D301" s="24"/>
+      <c r="D301" s="20"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
@@ -18320,7 +18461,7 @@
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
-      <c r="D302" s="24"/>
+      <c r="D302" s="20"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
@@ -18370,7 +18511,7 @@
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
-      <c r="D303" s="24"/>
+      <c r="D303" s="20"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
@@ -18420,7 +18561,7 @@
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
-      <c r="D304" s="24"/>
+      <c r="D304" s="20"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
@@ -18470,7 +18611,7 @@
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
-      <c r="D305" s="24"/>
+      <c r="D305" s="20"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
@@ -18520,7 +18661,7 @@
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
-      <c r="D306" s="24"/>
+      <c r="D306" s="20"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
@@ -18570,7 +18711,7 @@
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
-      <c r="D307" s="24"/>
+      <c r="D307" s="20"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
@@ -18620,7 +18761,7 @@
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
-      <c r="D308" s="24"/>
+      <c r="D308" s="20"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
@@ -18670,7 +18811,7 @@
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
-      <c r="D309" s="24"/>
+      <c r="D309" s="20"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
@@ -18720,7 +18861,7 @@
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
-      <c r="D310" s="24"/>
+      <c r="D310" s="20"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
@@ -18770,7 +18911,7 @@
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
-      <c r="D311" s="24"/>
+      <c r="D311" s="20"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
@@ -18820,7 +18961,7 @@
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
-      <c r="D312" s="24"/>
+      <c r="D312" s="20"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
@@ -18870,7 +19011,7 @@
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
-      <c r="D313" s="24"/>
+      <c r="D313" s="20"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
@@ -18920,7 +19061,7 @@
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
-      <c r="D314" s="24"/>
+      <c r="D314" s="20"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
@@ -18970,7 +19111,7 @@
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
-      <c r="D315" s="24"/>
+      <c r="D315" s="20"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
@@ -19020,7 +19161,7 @@
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
-      <c r="D316" s="24"/>
+      <c r="D316" s="20"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
@@ -19070,7 +19211,7 @@
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
-      <c r="D317" s="24"/>
+      <c r="D317" s="20"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
@@ -19120,7 +19261,7 @@
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
-      <c r="D318" s="24"/>
+      <c r="D318" s="20"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
@@ -19170,7 +19311,7 @@
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
-      <c r="D319" s="24"/>
+      <c r="D319" s="20"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
@@ -19220,7 +19361,7 @@
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
-      <c r="D320" s="24"/>
+      <c r="D320" s="20"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
@@ -19270,7 +19411,7 @@
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
-      <c r="D321" s="24"/>
+      <c r="D321" s="20"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
@@ -19320,7 +19461,7 @@
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
-      <c r="D322" s="24"/>
+      <c r="D322" s="20"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
@@ -19370,7 +19511,7 @@
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
-      <c r="D323" s="24"/>
+      <c r="D323" s="20"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
@@ -19420,7 +19561,7 @@
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
-      <c r="D324" s="24"/>
+      <c r="D324" s="20"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
@@ -19470,7 +19611,7 @@
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
-      <c r="D325" s="24"/>
+      <c r="D325" s="20"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
@@ -19520,7 +19661,7 @@
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
-      <c r="D326" s="24"/>
+      <c r="D326" s="20"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
@@ -19570,7 +19711,7 @@
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
-      <c r="D327" s="24"/>
+      <c r="D327" s="20"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
@@ -19620,7 +19761,7 @@
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
-      <c r="D328" s="24"/>
+      <c r="D328" s="20"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
@@ -19670,7 +19811,7 @@
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
-      <c r="D329" s="24"/>
+      <c r="D329" s="20"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
@@ -19720,7 +19861,7 @@
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
-      <c r="D330" s="24"/>
+      <c r="D330" s="20"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
@@ -19770,7 +19911,7 @@
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
-      <c r="D331" s="24"/>
+      <c r="D331" s="20"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
@@ -19820,7 +19961,7 @@
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
-      <c r="D332" s="24"/>
+      <c r="D332" s="20"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
@@ -19870,7 +20011,7 @@
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
-      <c r="D333" s="24"/>
+      <c r="D333" s="20"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
@@ -19920,7 +20061,7 @@
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
-      <c r="D334" s="24"/>
+      <c r="D334" s="20"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
@@ -19970,7 +20111,7 @@
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
-      <c r="D335" s="24"/>
+      <c r="D335" s="20"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
@@ -20020,7 +20161,7 @@
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
-      <c r="D336" s="24"/>
+      <c r="D336" s="20"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
@@ -20070,7 +20211,7 @@
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
-      <c r="D337" s="24"/>
+      <c r="D337" s="20"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
@@ -20120,7 +20261,7 @@
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
-      <c r="D338" s="24"/>
+      <c r="D338" s="20"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
@@ -20170,7 +20311,7 @@
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
-      <c r="D339" s="24"/>
+      <c r="D339" s="20"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
@@ -20220,7 +20361,7 @@
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
-      <c r="D340" s="24"/>
+      <c r="D340" s="20"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
@@ -20270,7 +20411,7 @@
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
-      <c r="D341" s="24"/>
+      <c r="D341" s="20"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
@@ -20320,7 +20461,7 @@
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
-      <c r="D342" s="24"/>
+      <c r="D342" s="20"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
@@ -20370,7 +20511,7 @@
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
-      <c r="D343" s="24"/>
+      <c r="D343" s="20"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
@@ -20420,7 +20561,7 @@
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
-      <c r="D344" s="24"/>
+      <c r="D344" s="20"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
@@ -20470,7 +20611,7 @@
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
-      <c r="D345" s="24"/>
+      <c r="D345" s="20"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
@@ -20520,7 +20661,7 @@
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
-      <c r="D346" s="24"/>
+      <c r="D346" s="20"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
@@ -20570,7 +20711,7 @@
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
-      <c r="D347" s="24"/>
+      <c r="D347" s="20"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
@@ -20620,7 +20761,7 @@
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
-      <c r="D348" s="24"/>
+      <c r="D348" s="20"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
@@ -20670,7 +20811,7 @@
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
-      <c r="D349" s="24"/>
+      <c r="D349" s="20"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
@@ -20720,7 +20861,7 @@
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
-      <c r="D350" s="24"/>
+      <c r="D350" s="20"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
@@ -20770,7 +20911,7 @@
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
-      <c r="D351" s="24"/>
+      <c r="D351" s="20"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
@@ -20820,7 +20961,7 @@
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
-      <c r="D352" s="24"/>
+      <c r="D352" s="20"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
@@ -20870,7 +21011,7 @@
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
-      <c r="D353" s="24"/>
+      <c r="D353" s="20"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
@@ -20920,7 +21061,7 @@
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
-      <c r="D354" s="24"/>
+      <c r="D354" s="20"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
@@ -20970,7 +21111,7 @@
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
-      <c r="D355" s="24"/>
+      <c r="D355" s="20"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
@@ -21020,7 +21161,7 @@
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
-      <c r="D356" s="24"/>
+      <c r="D356" s="20"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
@@ -21070,7 +21211,7 @@
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
-      <c r="D357" s="24"/>
+      <c r="D357" s="20"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
@@ -21120,7 +21261,7 @@
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
-      <c r="D358" s="24"/>
+      <c r="D358" s="20"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
@@ -21170,7 +21311,7 @@
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
-      <c r="D359" s="24"/>
+      <c r="D359" s="20"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
@@ -21220,7 +21361,7 @@
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
-      <c r="D360" s="24"/>
+      <c r="D360" s="20"/>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
@@ -21270,7 +21411,7 @@
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
-      <c r="D361" s="24"/>
+      <c r="D361" s="20"/>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
@@ -21320,7 +21461,7 @@
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
-      <c r="D362" s="24"/>
+      <c r="D362" s="20"/>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
@@ -21370,7 +21511,7 @@
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
-      <c r="D363" s="24"/>
+      <c r="D363" s="20"/>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
@@ -21420,7 +21561,7 @@
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
-      <c r="D364" s="24"/>
+      <c r="D364" s="20"/>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
@@ -21470,7 +21611,7 @@
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
-      <c r="D365" s="24"/>
+      <c r="D365" s="20"/>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
@@ -21520,7 +21661,7 @@
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
-      <c r="D366" s="24"/>
+      <c r="D366" s="20"/>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
@@ -21570,7 +21711,7 @@
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
-      <c r="D367" s="24"/>
+      <c r="D367" s="20"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
@@ -21620,7 +21761,7 @@
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
-      <c r="D368" s="24"/>
+      <c r="D368" s="20"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
@@ -21670,7 +21811,7 @@
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
-      <c r="D369" s="24"/>
+      <c r="D369" s="20"/>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
@@ -21720,7 +21861,7 @@
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
-      <c r="D370" s="24"/>
+      <c r="D370" s="20"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
@@ -21770,7 +21911,7 @@
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
-      <c r="D371" s="24"/>
+      <c r="D371" s="20"/>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
@@ -21820,7 +21961,7 @@
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
-      <c r="D372" s="24"/>
+      <c r="D372" s="20"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
@@ -21870,7 +22011,7 @@
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
-      <c r="D373" s="24"/>
+      <c r="D373" s="20"/>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
@@ -21920,7 +22061,7 @@
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
-      <c r="D374" s="24"/>
+      <c r="D374" s="20"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
@@ -21970,7 +22111,7 @@
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
-      <c r="D375" s="24"/>
+      <c r="D375" s="20"/>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
@@ -22020,7 +22161,7 @@
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
-      <c r="D376" s="24"/>
+      <c r="D376" s="20"/>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
@@ -22070,7 +22211,7 @@
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
-      <c r="D377" s="24"/>
+      <c r="D377" s="20"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
@@ -22120,7 +22261,7 @@
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
-      <c r="D378" s="24"/>
+      <c r="D378" s="20"/>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
@@ -22170,7 +22311,7 @@
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
-      <c r="D379" s="24"/>
+      <c r="D379" s="20"/>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
@@ -22220,7 +22361,7 @@
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
-      <c r="D380" s="24"/>
+      <c r="D380" s="20"/>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
@@ -22270,7 +22411,7 @@
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
-      <c r="D381" s="24"/>
+      <c r="D381" s="20"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
@@ -22320,7 +22461,7 @@
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
-      <c r="D382" s="24"/>
+      <c r="D382" s="20"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
@@ -22370,7 +22511,7 @@
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
-      <c r="D383" s="24"/>
+      <c r="D383" s="20"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
@@ -22420,7 +22561,7 @@
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
-      <c r="D384" s="24"/>
+      <c r="D384" s="20"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
@@ -22470,7 +22611,7 @@
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
-      <c r="D385" s="24"/>
+      <c r="D385" s="20"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
@@ -22520,7 +22661,7 @@
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
-      <c r="D386" s="24"/>
+      <c r="D386" s="20"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
@@ -22570,7 +22711,7 @@
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
-      <c r="D387" s="24"/>
+      <c r="D387" s="20"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
@@ -22620,7 +22761,7 @@
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
-      <c r="D388" s="24"/>
+      <c r="D388" s="20"/>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
@@ -22670,7 +22811,7 @@
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
-      <c r="D389" s="24"/>
+      <c r="D389" s="20"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
@@ -22720,7 +22861,7 @@
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
-      <c r="D390" s="24"/>
+      <c r="D390" s="20"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
@@ -22770,7 +22911,7 @@
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
-      <c r="D391" s="24"/>
+      <c r="D391" s="20"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
@@ -22820,7 +22961,7 @@
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
-      <c r="D392" s="24"/>
+      <c r="D392" s="20"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
@@ -22870,7 +23011,7 @@
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
-      <c r="D393" s="24"/>
+      <c r="D393" s="20"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
@@ -22920,7 +23061,7 @@
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
-      <c r="D394" s="24"/>
+      <c r="D394" s="20"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
@@ -22970,7 +23111,7 @@
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
-      <c r="D395" s="24"/>
+      <c r="D395" s="20"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
@@ -23020,7 +23161,7 @@
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
-      <c r="D396" s="24"/>
+      <c r="D396" s="20"/>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
@@ -23070,7 +23211,7 @@
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
-      <c r="D397" s="24"/>
+      <c r="D397" s="20"/>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
@@ -23120,7 +23261,7 @@
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
-      <c r="D398" s="24"/>
+      <c r="D398" s="20"/>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
@@ -23170,7 +23311,7 @@
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
-      <c r="D399" s="24"/>
+      <c r="D399" s="20"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
@@ -23220,7 +23361,7 @@
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
-      <c r="D400" s="24"/>
+      <c r="D400" s="20"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
@@ -23270,7 +23411,7 @@
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
-      <c r="D401" s="24"/>
+      <c r="D401" s="20"/>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
@@ -23320,7 +23461,7 @@
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
-      <c r="D402" s="24"/>
+      <c r="D402" s="20"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
@@ -23370,7 +23511,7 @@
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
-      <c r="D403" s="24"/>
+      <c r="D403" s="20"/>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
@@ -23420,7 +23561,7 @@
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
-      <c r="D404" s="24"/>
+      <c r="D404" s="20"/>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
@@ -23470,7 +23611,7 @@
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
-      <c r="D405" s="24"/>
+      <c r="D405" s="20"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
@@ -23520,7 +23661,7 @@
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
-      <c r="D406" s="24"/>
+      <c r="D406" s="20"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
@@ -23570,7 +23711,7 @@
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
-      <c r="D407" s="24"/>
+      <c r="D407" s="20"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
@@ -23620,7 +23761,7 @@
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
-      <c r="D408" s="24"/>
+      <c r="D408" s="20"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
@@ -23670,7 +23811,7 @@
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
-      <c r="D409" s="24"/>
+      <c r="D409" s="20"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
@@ -23720,7 +23861,7 @@
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
-      <c r="D410" s="24"/>
+      <c r="D410" s="20"/>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
@@ -23770,7 +23911,7 @@
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
-      <c r="D411" s="24"/>
+      <c r="D411" s="20"/>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
@@ -23820,7 +23961,7 @@
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
-      <c r="D412" s="24"/>
+      <c r="D412" s="20"/>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
@@ -23870,7 +24011,7 @@
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
-      <c r="D413" s="24"/>
+      <c r="D413" s="20"/>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
@@ -23920,7 +24061,7 @@
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
-      <c r="D414" s="24"/>
+      <c r="D414" s="20"/>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
@@ -23970,7 +24111,7 @@
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
-      <c r="D415" s="24"/>
+      <c r="D415" s="20"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
@@ -24020,7 +24161,7 @@
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
-      <c r="D416" s="24"/>
+      <c r="D416" s="20"/>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
@@ -24070,7 +24211,7 @@
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
-      <c r="D417" s="24"/>
+      <c r="D417" s="20"/>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
@@ -24120,7 +24261,7 @@
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
-      <c r="D418" s="24"/>
+      <c r="D418" s="20"/>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
@@ -24170,7 +24311,7 @@
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
-      <c r="D419" s="24"/>
+      <c r="D419" s="20"/>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
@@ -24220,7 +24361,7 @@
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
-      <c r="D420" s="24"/>
+      <c r="D420" s="20"/>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
@@ -24270,7 +24411,7 @@
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
-      <c r="D421" s="24"/>
+      <c r="D421" s="20"/>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
@@ -24320,7 +24461,7 @@
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
-      <c r="D422" s="24"/>
+      <c r="D422" s="20"/>
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
@@ -24370,7 +24511,7 @@
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
-      <c r="D423" s="24"/>
+      <c r="D423" s="20"/>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
@@ -24420,7 +24561,7 @@
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
-      <c r="D424" s="24"/>
+      <c r="D424" s="20"/>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
@@ -24470,7 +24611,7 @@
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
-      <c r="D425" s="24"/>
+      <c r="D425" s="20"/>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
@@ -24520,7 +24661,7 @@
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
-      <c r="D426" s="24"/>
+      <c r="D426" s="20"/>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
@@ -24570,7 +24711,7 @@
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
-      <c r="D427" s="24"/>
+      <c r="D427" s="20"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
@@ -24620,7 +24761,7 @@
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
-      <c r="D428" s="24"/>
+      <c r="D428" s="20"/>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
@@ -24670,7 +24811,7 @@
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
-      <c r="D429" s="24"/>
+      <c r="D429" s="20"/>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
@@ -24720,7 +24861,7 @@
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
-      <c r="D430" s="24"/>
+      <c r="D430" s="20"/>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
@@ -24770,7 +24911,7 @@
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
-      <c r="D431" s="24"/>
+      <c r="D431" s="20"/>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
@@ -24820,7 +24961,7 @@
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
-      <c r="D432" s="24"/>
+      <c r="D432" s="20"/>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
@@ -24870,7 +25011,7 @@
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
-      <c r="D433" s="24"/>
+      <c r="D433" s="20"/>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
@@ -24920,7 +25061,7 @@
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
-      <c r="D434" s="24"/>
+      <c r="D434" s="20"/>
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
@@ -24970,7 +25111,7 @@
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
-      <c r="D435" s="24"/>
+      <c r="D435" s="20"/>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
@@ -25020,7 +25161,7 @@
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
-      <c r="D436" s="24"/>
+      <c r="D436" s="20"/>
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
@@ -25070,7 +25211,7 @@
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
-      <c r="D437" s="24"/>
+      <c r="D437" s="20"/>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
@@ -25120,7 +25261,7 @@
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
-      <c r="D438" s="24"/>
+      <c r="D438" s="20"/>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
@@ -25170,7 +25311,7 @@
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
-      <c r="D439" s="24"/>
+      <c r="D439" s="20"/>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
@@ -25220,7 +25361,7 @@
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
-      <c r="D440" s="24"/>
+      <c r="D440" s="20"/>
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
@@ -25270,7 +25411,7 @@
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
-      <c r="D441" s="24"/>
+      <c r="D441" s="20"/>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
@@ -25320,7 +25461,7 @@
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
-      <c r="D442" s="24"/>
+      <c r="D442" s="20"/>
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
@@ -25370,7 +25511,7 @@
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
-      <c r="D443" s="24"/>
+      <c r="D443" s="20"/>
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
@@ -25420,7 +25561,7 @@
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
-      <c r="D444" s="24"/>
+      <c r="D444" s="20"/>
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
@@ -25470,7 +25611,7 @@
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
-      <c r="D445" s="24"/>
+      <c r="D445" s="20"/>
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
@@ -25520,7 +25661,7 @@
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
-      <c r="D446" s="24"/>
+      <c r="D446" s="20"/>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
@@ -25570,7 +25711,7 @@
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
-      <c r="D447" s="24"/>
+      <c r="D447" s="20"/>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
@@ -25620,7 +25761,7 @@
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
-      <c r="D448" s="24"/>
+      <c r="D448" s="20"/>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
@@ -25670,7 +25811,7 @@
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
-      <c r="D449" s="24"/>
+      <c r="D449" s="20"/>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
@@ -25720,7 +25861,7 @@
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
-      <c r="D450" s="24"/>
+      <c r="D450" s="20"/>
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
@@ -25770,7 +25911,7 @@
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
-      <c r="D451" s="24"/>
+      <c r="D451" s="20"/>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
@@ -25820,7 +25961,7 @@
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
-      <c r="D452" s="24"/>
+      <c r="D452" s="20"/>
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
@@ -25870,7 +26011,7 @@
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
-      <c r="D453" s="24"/>
+      <c r="D453" s="20"/>
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
@@ -25920,7 +26061,7 @@
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
-      <c r="D454" s="24"/>
+      <c r="D454" s="20"/>
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
@@ -25970,7 +26111,7 @@
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
-      <c r="D455" s="24"/>
+      <c r="D455" s="20"/>
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
@@ -26020,7 +26161,7 @@
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
-      <c r="D456" s="24"/>
+      <c r="D456" s="20"/>
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
@@ -26070,7 +26211,7 @@
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
-      <c r="D457" s="24"/>
+      <c r="D457" s="20"/>
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
@@ -26120,7 +26261,7 @@
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
-      <c r="D458" s="24"/>
+      <c r="D458" s="20"/>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
@@ -26170,7 +26311,7 @@
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
-      <c r="D459" s="24"/>
+      <c r="D459" s="20"/>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
@@ -26220,7 +26361,7 @@
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
-      <c r="D460" s="24"/>
+      <c r="D460" s="20"/>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
@@ -26270,7 +26411,7 @@
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
-      <c r="D461" s="24"/>
+      <c r="D461" s="20"/>
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
@@ -26320,7 +26461,7 @@
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
-      <c r="D462" s="24"/>
+      <c r="D462" s="20"/>
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
@@ -26370,7 +26511,7 @@
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
-      <c r="D463" s="24"/>
+      <c r="D463" s="20"/>
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
@@ -26420,7 +26561,7 @@
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
-      <c r="D464" s="24"/>
+      <c r="D464" s="20"/>
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
@@ -26470,7 +26611,7 @@
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
-      <c r="D465" s="24"/>
+      <c r="D465" s="20"/>
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
@@ -26520,7 +26661,7 @@
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
-      <c r="D466" s="24"/>
+      <c r="D466" s="20"/>
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
@@ -26570,7 +26711,7 @@
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
-      <c r="D467" s="24"/>
+      <c r="D467" s="20"/>
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
@@ -26620,7 +26761,7 @@
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
-      <c r="D468" s="24"/>
+      <c r="D468" s="20"/>
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
       <c r="G468" s="1"/>
@@ -26670,7 +26811,7 @@
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
-      <c r="D469" s="24"/>
+      <c r="D469" s="20"/>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
@@ -26720,7 +26861,7 @@
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
-      <c r="D470" s="24"/>
+      <c r="D470" s="20"/>
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
@@ -26770,7 +26911,7 @@
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
-      <c r="D471" s="24"/>
+      <c r="D471" s="20"/>
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
       <c r="G471" s="1"/>
@@ -26820,7 +26961,7 @@
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
-      <c r="D472" s="24"/>
+      <c r="D472" s="20"/>
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
@@ -26870,7 +27011,7 @@
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
-      <c r="D473" s="24"/>
+      <c r="D473" s="20"/>
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
@@ -26920,7 +27061,7 @@
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
-      <c r="D474" s="24"/>
+      <c r="D474" s="20"/>
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
@@ -26970,7 +27111,7 @@
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
-      <c r="D475" s="24"/>
+      <c r="D475" s="20"/>
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
@@ -27020,7 +27161,7 @@
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
-      <c r="D476" s="24"/>
+      <c r="D476" s="20"/>
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
@@ -27070,7 +27211,7 @@
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
-      <c r="D477" s="24"/>
+      <c r="D477" s="20"/>
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
@@ -27120,7 +27261,7 @@
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
-      <c r="D478" s="24"/>
+      <c r="D478" s="20"/>
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
@@ -27170,7 +27311,7 @@
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
-      <c r="D479" s="24"/>
+      <c r="D479" s="20"/>
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
@@ -27220,7 +27361,7 @@
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
-      <c r="D480" s="24"/>
+      <c r="D480" s="20"/>
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
       <c r="G480" s="1"/>
@@ -27270,7 +27411,7 @@
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
-      <c r="D481" s="24"/>
+      <c r="D481" s="20"/>
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
       <c r="G481" s="1"/>
@@ -27320,7 +27461,7 @@
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
-      <c r="D482" s="24"/>
+      <c r="D482" s="20"/>
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
       <c r="G482" s="1"/>
@@ -27370,7 +27511,7 @@
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
-      <c r="D483" s="24"/>
+      <c r="D483" s="20"/>
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
@@ -27420,7 +27561,7 @@
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
-      <c r="D484" s="24"/>
+      <c r="D484" s="20"/>
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
       <c r="G484" s="1"/>
@@ -27470,7 +27611,7 @@
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
-      <c r="D485" s="24"/>
+      <c r="D485" s="20"/>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
       <c r="G485" s="1"/>
@@ -27520,7 +27661,7 @@
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
-      <c r="D486" s="24"/>
+      <c r="D486" s="20"/>
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
       <c r="G486" s="1"/>
@@ -27570,7 +27711,7 @@
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
-      <c r="D487" s="24"/>
+      <c r="D487" s="20"/>
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
       <c r="G487" s="1"/>
@@ -27620,7 +27761,7 @@
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
-      <c r="D488" s="24"/>
+      <c r="D488" s="20"/>
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
       <c r="G488" s="1"/>
@@ -27670,7 +27811,7 @@
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
-      <c r="D489" s="24"/>
+      <c r="D489" s="20"/>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="1"/>
@@ -27720,7 +27861,7 @@
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
-      <c r="D490" s="24"/>
+      <c r="D490" s="20"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
       <c r="G490" s="1"/>
@@ -27770,7 +27911,7 @@
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
-      <c r="D491" s="24"/>
+      <c r="D491" s="20"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
@@ -27820,7 +27961,7 @@
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
-      <c r="D492" s="24"/>
+      <c r="D492" s="20"/>
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
@@ -27870,7 +28011,7 @@
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
-      <c r="D493" s="24"/>
+      <c r="D493" s="20"/>
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
@@ -27920,7 +28061,7 @@
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
-      <c r="D494" s="24"/>
+      <c r="D494" s="20"/>
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
@@ -27970,7 +28111,7 @@
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
-      <c r="D495" s="24"/>
+      <c r="D495" s="20"/>
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
       <c r="G495" s="1"/>
@@ -28020,7 +28161,7 @@
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
-      <c r="D496" s="24"/>
+      <c r="D496" s="20"/>
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
       <c r="G496" s="1"/>
@@ -28070,7 +28211,7 @@
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
-      <c r="D497" s="24"/>
+      <c r="D497" s="20"/>
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
       <c r="G497" s="1"/>
@@ -28120,7 +28261,7 @@
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
-      <c r="D498" s="24"/>
+      <c r="D498" s="20"/>
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
       <c r="G498" s="1"/>
@@ -28170,7 +28311,7 @@
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
-      <c r="D499" s="24"/>
+      <c r="D499" s="20"/>
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
       <c r="G499" s="1"/>
@@ -28220,7 +28361,7 @@
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
-      <c r="D500" s="24"/>
+      <c r="D500" s="20"/>
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
@@ -28270,7 +28411,7 @@
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
-      <c r="D501" s="24"/>
+      <c r="D501" s="20"/>
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
       <c r="G501" s="1"/>
@@ -28320,7 +28461,7 @@
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
-      <c r="D502" s="24"/>
+      <c r="D502" s="20"/>
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
       <c r="G502" s="1"/>
@@ -28370,7 +28511,7 @@
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
-      <c r="D503" s="24"/>
+      <c r="D503" s="20"/>
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
       <c r="G503" s="1"/>
@@ -28420,7 +28561,7 @@
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
-      <c r="D504" s="24"/>
+      <c r="D504" s="20"/>
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
       <c r="G504" s="1"/>
@@ -28470,7 +28611,7 @@
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
-      <c r="D505" s="24"/>
+      <c r="D505" s="20"/>
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
       <c r="G505" s="1"/>
@@ -28520,7 +28661,7 @@
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
-      <c r="D506" s="24"/>
+      <c r="D506" s="20"/>
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
       <c r="G506" s="1"/>
@@ -28570,7 +28711,7 @@
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
-      <c r="D507" s="24"/>
+      <c r="D507" s="20"/>
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
       <c r="G507" s="1"/>
@@ -28620,7 +28761,7 @@
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
-      <c r="D508" s="24"/>
+      <c r="D508" s="20"/>
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
       <c r="G508" s="1"/>
@@ -28670,7 +28811,7 @@
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
-      <c r="D509" s="24"/>
+      <c r="D509" s="20"/>
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
@@ -28720,7 +28861,7 @@
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
-      <c r="D510" s="24"/>
+      <c r="D510" s="20"/>
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
       <c r="G510" s="1"/>
@@ -28770,7 +28911,7 @@
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
-      <c r="D511" s="24"/>
+      <c r="D511" s="20"/>
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
       <c r="G511" s="1"/>
@@ -28820,7 +28961,7 @@
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
-      <c r="D512" s="24"/>
+      <c r="D512" s="20"/>
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
       <c r="G512" s="1"/>
@@ -28870,7 +29011,7 @@
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
-      <c r="D513" s="24"/>
+      <c r="D513" s="20"/>
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
       <c r="G513" s="1"/>
@@ -28920,7 +29061,7 @@
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
-      <c r="D514" s="24"/>
+      <c r="D514" s="20"/>
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
       <c r="G514" s="1"/>
@@ -28970,7 +29111,7 @@
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
-      <c r="D515" s="24"/>
+      <c r="D515" s="20"/>
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
       <c r="G515" s="1"/>
@@ -29020,7 +29161,7 @@
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
-      <c r="D516" s="24"/>
+      <c r="D516" s="20"/>
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
       <c r="G516" s="1"/>
@@ -29070,7 +29211,7 @@
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
-      <c r="D517" s="24"/>
+      <c r="D517" s="20"/>
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
       <c r="G517" s="1"/>
@@ -29120,7 +29261,7 @@
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
-      <c r="D518" s="24"/>
+      <c r="D518" s="20"/>
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
       <c r="G518" s="1"/>
@@ -29170,7 +29311,7 @@
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
-      <c r="D519" s="24"/>
+      <c r="D519" s="20"/>
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
       <c r="G519" s="1"/>
@@ -29220,7 +29361,7 @@
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
-      <c r="D520" s="24"/>
+      <c r="D520" s="20"/>
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
       <c r="G520" s="1"/>
@@ -29270,7 +29411,7 @@
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
-      <c r="D521" s="24"/>
+      <c r="D521" s="20"/>
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
       <c r="G521" s="1"/>
@@ -29320,7 +29461,7 @@
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
-      <c r="D522" s="24"/>
+      <c r="D522" s="20"/>
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
       <c r="G522" s="1"/>
@@ -29370,7 +29511,7 @@
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
-      <c r="D523" s="24"/>
+      <c r="D523" s="20"/>
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
       <c r="G523" s="1"/>
@@ -29420,7 +29561,7 @@
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
-      <c r="D524" s="24"/>
+      <c r="D524" s="20"/>
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
       <c r="G524" s="1"/>
@@ -29470,7 +29611,7 @@
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
-      <c r="D525" s="24"/>
+      <c r="D525" s="20"/>
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
       <c r="G525" s="1"/>
@@ -29520,7 +29661,7 @@
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
-      <c r="D526" s="24"/>
+      <c r="D526" s="20"/>
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
       <c r="G526" s="1"/>
@@ -29570,7 +29711,7 @@
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
-      <c r="D527" s="24"/>
+      <c r="D527" s="20"/>
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
       <c r="G527" s="1"/>
@@ -29620,7 +29761,7 @@
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
-      <c r="D528" s="24"/>
+      <c r="D528" s="20"/>
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
       <c r="G528" s="1"/>
@@ -29670,7 +29811,7 @@
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
-      <c r="D529" s="24"/>
+      <c r="D529" s="20"/>
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
       <c r="G529" s="1"/>
@@ -29720,7 +29861,7 @@
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
-      <c r="D530" s="24"/>
+      <c r="D530" s="20"/>
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
       <c r="G530" s="1"/>
@@ -29770,7 +29911,7 @@
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
-      <c r="D531" s="24"/>
+      <c r="D531" s="20"/>
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
       <c r="G531" s="1"/>
@@ -29820,7 +29961,7 @@
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
-      <c r="D532" s="24"/>
+      <c r="D532" s="20"/>
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
       <c r="G532" s="1"/>
@@ -29870,7 +30011,7 @@
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
-      <c r="D533" s="24"/>
+      <c r="D533" s="20"/>
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
       <c r="G533" s="1"/>
@@ -29920,7 +30061,7 @@
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
-      <c r="D534" s="24"/>
+      <c r="D534" s="20"/>
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
       <c r="G534" s="1"/>
@@ -29970,7 +30111,7 @@
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
-      <c r="D535" s="24"/>
+      <c r="D535" s="20"/>
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
       <c r="G535" s="1"/>
@@ -30020,7 +30161,7 @@
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
-      <c r="D536" s="24"/>
+      <c r="D536" s="20"/>
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
       <c r="G536" s="1"/>
@@ -30070,7 +30211,7 @@
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
-      <c r="D537" s="24"/>
+      <c r="D537" s="20"/>
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
       <c r="G537" s="1"/>
@@ -30120,7 +30261,7 @@
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
-      <c r="D538" s="24"/>
+      <c r="D538" s="20"/>
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
       <c r="G538" s="1"/>
@@ -30170,7 +30311,7 @@
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
-      <c r="D539" s="24"/>
+      <c r="D539" s="20"/>
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
       <c r="G539" s="1"/>
@@ -30220,7 +30361,7 @@
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
-      <c r="D540" s="24"/>
+      <c r="D540" s="20"/>
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
       <c r="G540" s="1"/>
@@ -30270,7 +30411,7 @@
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
-      <c r="D541" s="24"/>
+      <c r="D541" s="20"/>
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
       <c r="G541" s="1"/>
@@ -30320,7 +30461,7 @@
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
-      <c r="D542" s="24"/>
+      <c r="D542" s="20"/>
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
       <c r="G542" s="1"/>
@@ -30370,7 +30511,7 @@
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
-      <c r="D543" s="24"/>
+      <c r="D543" s="20"/>
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
       <c r="G543" s="1"/>
@@ -30420,7 +30561,7 @@
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
-      <c r="D544" s="24"/>
+      <c r="D544" s="20"/>
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
       <c r="G544" s="1"/>
@@ -30470,7 +30611,7 @@
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
-      <c r="D545" s="24"/>
+      <c r="D545" s="20"/>
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
       <c r="G545" s="1"/>
@@ -30520,7 +30661,7 @@
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
-      <c r="D546" s="24"/>
+      <c r="D546" s="20"/>
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
       <c r="G546" s="1"/>
@@ -30570,7 +30711,7 @@
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
-      <c r="D547" s="24"/>
+      <c r="D547" s="20"/>
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
       <c r="G547" s="1"/>
@@ -30620,7 +30761,7 @@
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
-      <c r="D548" s="24"/>
+      <c r="D548" s="20"/>
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
       <c r="G548" s="1"/>
@@ -30670,7 +30811,7 @@
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
-      <c r="D549" s="24"/>
+      <c r="D549" s="20"/>
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
       <c r="G549" s="1"/>
@@ -30720,7 +30861,7 @@
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
-      <c r="D550" s="24"/>
+      <c r="D550" s="20"/>
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
       <c r="G550" s="1"/>
@@ -30770,7 +30911,7 @@
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
-      <c r="D551" s="24"/>
+      <c r="D551" s="20"/>
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
       <c r="G551" s="1"/>
@@ -30820,7 +30961,7 @@
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
-      <c r="D552" s="24"/>
+      <c r="D552" s="20"/>
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
       <c r="G552" s="1"/>
@@ -30870,7 +31011,7 @@
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
-      <c r="D553" s="24"/>
+      <c r="D553" s="20"/>
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
       <c r="G553" s="1"/>
@@ -30920,7 +31061,7 @@
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
-      <c r="D554" s="24"/>
+      <c r="D554" s="20"/>
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
       <c r="G554" s="1"/>
@@ -30970,7 +31111,7 @@
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
-      <c r="D555" s="24"/>
+      <c r="D555" s="20"/>
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
       <c r="G555" s="1"/>
@@ -31020,7 +31161,7 @@
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
-      <c r="D556" s="24"/>
+      <c r="D556" s="20"/>
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
       <c r="G556" s="1"/>
@@ -31070,7 +31211,7 @@
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
-      <c r="D557" s="24"/>
+      <c r="D557" s="20"/>
       <c r="E557" s="1"/>
       <c r="F557" s="1"/>
       <c r="G557" s="1"/>
@@ -31120,7 +31261,7 @@
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
-      <c r="D558" s="24"/>
+      <c r="D558" s="20"/>
       <c r="E558" s="1"/>
       <c r="F558" s="1"/>
       <c r="G558" s="1"/>
@@ -31170,7 +31311,7 @@
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
-      <c r="D559" s="24"/>
+      <c r="D559" s="20"/>
       <c r="E559" s="1"/>
       <c r="F559" s="1"/>
       <c r="G559" s="1"/>
